--- a/data/trans_dic/P55$familiarvive-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 28,01</t>
+          <t>5,51; 28,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 30,31</t>
+          <t>3,59; 31,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 27,55</t>
+          <t>3,43; 27,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 9,04</t>
+          <t>0,84; 9,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,06; 42,92</t>
+          <t>13,49; 41,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 30,97</t>
+          <t>9,2; 28,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 35,12</t>
+          <t>12,49; 36,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 24,28</t>
+          <t>13,53; 25,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,35; 31,54</t>
+          <t>13,33; 31,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 26,79</t>
+          <t>9,51; 25,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 29,09</t>
+          <t>11,9; 29,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 16,55</t>
+          <t>9,11; 16,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 28,55</t>
+          <t>8,12; 28,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 29,08</t>
+          <t>4,82; 27,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 26,53</t>
+          <t>6,53; 28,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 16,8</t>
+          <t>2,72; 17,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,77; 42,75</t>
+          <t>17,96; 41,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,79; 42,38</t>
+          <t>22,03; 43,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,72; 41,41</t>
+          <t>18,57; 40,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 26,03</t>
+          <t>13,14; 25,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 32,49</t>
+          <t>15,4; 32,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,08; 34,28</t>
+          <t>18,69; 34,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 34,16</t>
+          <t>16,5; 32,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,4; 21,23</t>
+          <t>11,5; 20,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 44,63</t>
+          <t>7,51; 45,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 46,86</t>
+          <t>7,83; 45,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 42,94</t>
+          <t>8,14; 42,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 35,52</t>
+          <t>7,56; 35,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 36,77</t>
+          <t>11,05; 36,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,12; 52,68</t>
+          <t>23,91; 52,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 45,33</t>
+          <t>16,95; 46,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 35,42</t>
+          <t>18,13; 35,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,59; 32,93</t>
+          <t>11,91; 35,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,61; 44,94</t>
+          <t>22,29; 45,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,79; 41,02</t>
+          <t>17,98; 40,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 31,79</t>
+          <t>17,07; 32,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 29,16</t>
+          <t>3,52; 27,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 43,17</t>
+          <t>11,06; 39,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 30,5</t>
+          <t>4,53; 30,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 28,5</t>
+          <t>8,86; 28,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,46; 53,01</t>
+          <t>28,37; 51,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,58; 39,99</t>
+          <t>18,48; 39,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 35,56</t>
+          <t>13,82; 37,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 24,99</t>
+          <t>13,97; 25,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,98; 43,88</t>
+          <t>23,93; 42,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,84; 36,32</t>
+          <t>18,76; 36,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 30,34</t>
+          <t>12,67; 29,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,94; 23,43</t>
+          <t>13,36; 23,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,86; 22,65</t>
+          <t>9,87; 22,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,08; 26,45</t>
+          <t>12,25; 26,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,5; 21,66</t>
+          <t>9,44; 21,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,45</t>
+          <t>7,32; 15,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,39; 36,49</t>
+          <t>24,77; 37,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,66; 35,11</t>
+          <t>23,72; 35,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,34; 33,12</t>
+          <t>20,64; 33,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,37</t>
+          <t>16,88; 23,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,76; 30,37</t>
+          <t>20,76; 29,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,13; 29,73</t>
+          <t>21,05; 29,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,6; 27,77</t>
+          <t>18,0; 28,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 19,75</t>
+          <t>14,38; 19,64</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11903</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10943</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13484</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14627</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16635</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15411</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16826</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16248</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1866; 9487</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1169; 10257</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>952; 7656</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>418; 4719</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6040; 18755</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5610; 17655</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7508; 22063</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10778; 20087</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10489; 25025</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8899; 24196</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10459; 25617</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11782; 21745</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7816</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6187</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3058</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19725</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27937</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22139</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16509</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27541</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34425</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28326</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19567</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3897; 13864</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2199; 12338</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2671; 11543</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1053; 6606</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12154; 28017</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19464; 38038</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14267; 31126</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11296; 21710</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17819; 37053</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25038; 46444</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19431; 38755</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14346; 25850</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4965</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9833</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19762</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16157</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15182</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14308</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26226</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21406</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20147</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1621; 9888</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2187; 12779</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1894; 9815</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1930; 9156</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5132; 16793</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12414; 27276</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8743; 24027</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10569; 20917</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8106; 24021</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17798; 36264</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13456; 30320</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14310; 27034</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9362</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7336</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28614</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22256</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18802</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19345</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31114</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>31619</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22671</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26681</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>813; 6458</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4427; 15998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1338; 9145</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3829; 12125</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20425; 37197</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14461; 30984</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10895; 29291</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14570; 26239</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22754; 40784</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22195; 42905</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13725; 32390</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19707; 34273</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>26783</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16980</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>70076</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>80897</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>70581</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>65663</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>89598</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>107680</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>89229</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82643</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12488; 28367</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17908; 38132</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11466; 25897</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11495; 23915</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>57205; 85990</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66306; 98944</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>55186; 88615</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>55413; 76583</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>74219; 106044</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>89589; 126445</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>70004; 108901</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69807; 95337</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>